--- a/biology/Zoologie/Erythrolamprus_poecilogyrus/Erythrolamprus_poecilogyrus.xlsx
+++ b/biology/Zoologie/Erythrolamprus_poecilogyrus/Erythrolamprus_poecilogyrus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Erythrolamprus poecilogyrus  est une espèce de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erythrolamprus poecilogyrus  est une espèce de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre entre 1 000 et 2 500 m d'altitude[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre entre 1 000 et 2 500 m d'altitude :
 au Venezuela dans l'État de Bolívar ;
 au Pérou ;
 en Équateur ;
@@ -549,9 +563,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Erythrolamprus poecilogyrus est un serpent ovipare[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erythrolamprus poecilogyrus est un serpent ovipare.
 </t>
         </is>
       </c>
@@ -580,9 +596,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (7 mai 2015)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (7 mai 2015) :
 Erythrolamprus poecilogyrus caesius (Cope, 1862)
 Erythrolamprus poecilogyrus poecilogyrus (Wied-Neuwied, 1825)
 Erythrolamprus poecilogyrus schotti (Schlegel, 1837)
@@ -614,9 +632,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les sous-espèces Liophis poecilogyrus amazonicus[3], Liophis poecilogyrus franciscanus[3], Liophis poecilogyrus montanus[3], Liophis poecilogyrus pictostriatus[3], Liophis poecilogyrus pinetincola[3], Liophis poecilogyrus subfasciatus[4] et Erythrolamprus poecilogyrus reticulatus[5] ont été placées en synonymie.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sous-espèces Liophis poecilogyrus amazonicus, Liophis poecilogyrus franciscanus, Liophis poecilogyrus montanus, Liophis poecilogyrus pictostriatus, Liophis poecilogyrus pinetincola, Liophis poecilogyrus subfasciatus et Erythrolamprus poecilogyrus reticulatus ont été placées en synonymie.
 </t>
         </is>
       </c>
@@ -645,7 +665,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Cope, 1860 : Catalogue of the Colubridae in the Museum of the Academy of Natural Sciences of Philadelphia, with notes and descriptions of new species. Part 2. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 12, p. 241-266 (texte intégral).
 Cope, 1862 : Catalogues of the Reptiles Obtained during the Explorations of the Parana, Paraguay, Vermejo and Uraguay Rivers, by Capt. Thos. J. Page, U. S. N.; And of Those Procured by Lieut. N. Michler, U. S. Top. Eng., Commander of the Expedition Conducting the Survey of the Atrato River. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 14, p. 346-359 &amp; 594 (texte intégral).
